--- a/admin-backend/src/main/resources/example.xlsx
+++ b/admin-backend/src/main/resources/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15800" activeTab="1"/>
+    <workbookView windowWidth="16140" windowHeight="15740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="北京空气质量" sheetId="1" r:id="rId1"/>
@@ -6679,7 +6679,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
